--- a/data/資料一覧.xlsx
+++ b/data/資料一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\repository\tips\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="マスタ" sheetId="1" r:id="rId1"/>
-    <sheet name="紐づけ表" sheetId="2" r:id="rId2"/>
-    <sheet name="紐づけ表_Y" sheetId="4" r:id="rId3"/>
+    <sheet name="紐づけ表_列まとめ" sheetId="5" r:id="rId2"/>
+    <sheet name="紐づけ数" sheetId="6" r:id="rId3"/>
+    <sheet name="紐づけ表" sheetId="2" r:id="rId4"/>
+    <sheet name="紐づけ表_Y" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>X01-0001</t>
     <phoneticPr fontId="1"/>
@@ -337,6 +339,27 @@
   </si>
   <si>
     <t>マッチ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y01-0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RV記録</t>
+    <rPh sb="2" eb="4">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐づき数</t>
+    <rPh sb="0" eb="1">
+      <t>ヒモ</t>
+    </rPh>
     <rPh sb="3" eb="4">
       <t>スウ</t>
     </rPh>
@@ -960,10 +983,1126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f>MATCH(A$2,マスタ!$A$1:$AA$1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <f>MATCH(D$2,マスタ!$A$1:$AA$1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <f>MATCH(G$2,マスタ!$A$1:$AA$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <f>MATCH(H$2,マスタ!$A$1:$AA$1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <f>IF(A4="","",MATCH(A4,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IF(A4="","",HYPERLINK("#マスタ!A"&amp;B4,C$2))</f>
+        <v>→</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="str">
+        <f>IF(D4="","",MATCH(D4,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IF(D4="","",HYPERLINK("#マスタ!A"&amp;E4,"→"))</f>
+        <v/>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f ca="1">IF(A4="","",IF(D4="",INDIRECT("マスタ!"&amp;ADDRESS($B4, G$3)),INDIRECT("マスタ!"&amp;ADDRESS($E4, G$3))))</f>
+        <v>要件定義</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f t="shared" ref="H4:H24" ca="1" si="0">IF(B4="","",IF(E4="",INDIRECT("マスタ!"&amp;ADDRESS($B4, H$3)),INDIRECT("マスタ!"&amp;ADDRESS($E4, H$3))))</f>
+        <v>名称X1</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <f>IF(A5="","",MATCH(A5,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IF(A5="","",HYPERLINK("#マスタ!A"&amp;B5,C$2))</f>
+        <v>→</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <f>IF(D5="","",MATCH(D5,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IF(D5="","",HYPERLINK("#マスタ!A"&amp;E5,"→"))</f>
+        <v>→</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G24" ca="1" si="1">IF(A5="","",IF(D5="",INDIRECT("マスタ!"&amp;ADDRESS($B5, G$3)),INDIRECT("マスタ!"&amp;ADDRESS($E5, G$3))))</f>
+        <v>要件定義</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>名称Y1</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <f>IF(A6="","",MATCH(A6,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" ref="C6:C14" si="2">IF(A6="","",HYPERLINK("#マスタ!A"&amp;B6,C$2))</f>
+        <v>→</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1">
+        <f>IF(D6="","",MATCH(D6,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f t="shared" ref="F6:F24" si="3">IF(D6="","",HYPERLINK("#マスタ!A"&amp;E6,"→"))</f>
+        <v>→</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>開発</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>名称Y8</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <f>IF(A7="","",MATCH(A7,マスタ!$A$2:$A$100,0)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>→</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="str">
+        <f>IF(D7="","",MATCH(D7,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>要件定義</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>名称X2</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="str">
+        <f>IF(A8="","",MATCH(A8,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="str">
+        <f>IF(D8="","",MATCH(D8,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="str">
+        <f>IF(A9="","",MATCH(A9,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="str">
+        <f>IF(D9="","",MATCH(D9,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="str">
+        <f>IF(A10="","",MATCH(A10,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="str">
+        <f>IF(D10="","",MATCH(D10,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <f>IF(A11="","",MATCH(A11,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="str">
+        <f>IF(D11="","",MATCH(D11,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="str">
+        <f>IF(A12="","",MATCH(A12,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
+        <f>IF(D12="","",MATCH(D12,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="str">
+        <f>IF(A13="","",MATCH(A13,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
+        <f>IF(D13="","",MATCH(D13,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="str">
+        <f>IF(A14="","",MATCH(A14,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="str">
+        <f>IF(D14="","",MATCH(D14,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="str">
+        <f>IF(A15="","",MATCH(A15,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="str">
+        <f>IF(D15="","",MATCH(D15,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="str">
+        <f>IF(A16="","",MATCH(A16,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="str">
+        <f>IF(D16="","",MATCH(D16,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="str">
+        <f>IF(A17="","",MATCH(A17,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="str">
+        <f>IF(D17="","",MATCH(D17,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="str">
+        <f>IF(A18="","",MATCH(A18,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="str">
+        <f>IF(D18="","",MATCH(D18,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="str">
+        <f>IF(A19="","",MATCH(A19,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="str">
+        <f>IF(D19="","",MATCH(D19,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="str">
+        <f>IF(A20="","",MATCH(A20,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="str">
+        <f>IF(D20="","",MATCH(D20,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="str">
+        <f>IF(A21="","",MATCH(A21,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="str">
+        <f>IF(D21="","",MATCH(D21,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="str">
+        <f>IF(A22="","",MATCH(A22,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="str">
+        <f>IF(D22="","",MATCH(D22,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="str">
+        <f>IF(A23="","",MATCH(A23,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="str">
+        <f>IF(D23="","",MATCH(D23,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="str">
+        <f>IF(A24="","",MATCH(A24,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="str">
+        <f>IF(D24="","",MATCH(D24,マスタ!$A$2:$A$100,0)+1)</f>
+        <v/>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="3.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>MATCH(A$1,マスタ!$A$1:$AA$1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <f>MATCH(D$1,マスタ!$A$1:$AA$1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>MATCH(E$1,マスタ!$A$1:$AA$1,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <f>MATCH(A3,マスタ!$A$2:$A$100,0)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IF(A3="","",HYPERLINK("#マスタ!A"&amp;B3,C$1))</f>
+        <v>→</v>
+      </c>
+      <c r="D3" s="1" t="str">
+        <f ca="1">INDIRECT("マスタ!"&amp;ADDRESS($B3, D$2))</f>
+        <v>要件定義</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f ca="1">INDIRECT("マスタ!"&amp;ADDRESS($B3, E$2))</f>
+        <v>名称Y1</v>
+      </c>
+      <c r="F3" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <f>MATCH(A4,マスタ!$A$2:$A$100,0)+1</f>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" ref="C4:C12" si="0">IF(A4="","",HYPERLINK("#マスタ!A"&amp;B4,C$1))</f>
+        <v>→</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <f t="shared" ref="D4:E12" ca="1" si="1">INDIRECT("マスタ!"&amp;ADDRESS($B4, D$2))</f>
+        <v>要件定義</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y2</v>
+      </c>
+      <c r="F4" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1">
+        <f>MATCH(A5,マスタ!$A$2:$A$100,0)+1</f>
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>基本設計</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y3</v>
+      </c>
+      <c r="F5" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <f>MATCH(A6,マスタ!$A$2:$A$100,0)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>基本設計</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <f>MATCH(A7,マスタ!$A$2:$A$100,0)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>詳細設計</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y5</v>
+      </c>
+      <c r="F7" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1">
+        <f>MATCH(A8,マスタ!$A$2:$A$100,0)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>詳細設計</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y6</v>
+      </c>
+      <c r="F8" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
+        <f>MATCH(A9,マスタ!$A$2:$A$100,0)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>開発</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y7</v>
+      </c>
+      <c r="F9" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1">
+        <f>MATCH(A10,マスタ!$A$2:$A$100,0)+1</f>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>開発</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y8</v>
+      </c>
+      <c r="F10" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <f>MATCH(A11,マスタ!$A$2:$A$100,0)+1</f>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>テスト</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y9</v>
+      </c>
+      <c r="F11" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <f>MATCH(A12,マスタ!$A$2:$A$100,0)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>→</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>テスト</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>名称Y10</v>
+      </c>
+      <c r="F12" s="1">
+        <f>COUNTIFS(紐づけ表_列まとめ!$D$4:$D$100,"="&amp;A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1109,11 +2248,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" ref="C5:C23" si="0">IF(A5="","",HYPERLINK("#マスタ!A"&amp;B5,C$2))</f>
+        <f t="shared" ref="C5:C13" si="0">IF(A5="","",HYPERLINK("#マスタ!A"&amp;B5,C$2))</f>
         <v>→</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:E23" ca="1" si="1">INDIRECT("マスタ!"&amp;ADDRESS($B5, D$3))</f>
+        <f t="shared" ref="D5:E13" ca="1" si="1">INDIRECT("マスタ!"&amp;ADDRESS($B5, D$3))</f>
         <v>要件定義</v>
       </c>
       <c r="E5" s="1" t="str">
@@ -1132,11 +2271,11 @@
         <v>→</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f ca="1">IF(F5="","",INDIRECT("マスタ!"&amp;ADDRESS($G5, I$3)))</f>
+        <f t="shared" ref="I5:I23" ca="1" si="3">IF(F5="","",INDIRECT("マスタ!"&amp;ADDRESS($G5, I$3)))</f>
         <v>要件定義</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" ref="J5:J23" ca="1" si="3">IF(G5="","",INDIRECT("マスタ!"&amp;ADDRESS($G5, J$3)))</f>
+        <f t="shared" ref="J5:J23" ca="1" si="4">IF(G5="","",INDIRECT("マスタ!"&amp;ADDRESS($G5, J$3)))</f>
         <v>名称Y2</v>
       </c>
       <c r="K5" s="1"/>
@@ -1172,11 +2311,11 @@
         <v/>
       </c>
       <c r="I6" s="1" t="str">
-        <f ca="1">IF(F6="","",INDIRECT("マスタ!"&amp;ADDRESS($G6, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K6" s="1"/>
@@ -1212,11 +2351,11 @@
         <v/>
       </c>
       <c r="I7" s="1" t="str">
-        <f ca="1">IF(F7="","",INDIRECT("マスタ!"&amp;ADDRESS($G7, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K7" s="1"/>
@@ -1254,11 +2393,11 @@
         <v>→</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f ca="1">IF(F8="","",INDIRECT("マスタ!"&amp;ADDRESS($G8, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>要件定義</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>名称Y1</v>
       </c>
       <c r="K8" s="1"/>
@@ -1294,11 +2433,11 @@
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f ca="1">IF(F9="","",INDIRECT("マスタ!"&amp;ADDRESS($G9, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K9" s="1"/>
@@ -1334,11 +2473,11 @@
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f ca="1">IF(F10="","",INDIRECT("マスタ!"&amp;ADDRESS($G10, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K10" s="1"/>
@@ -1374,11 +2513,11 @@
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f ca="1">IF(F11="","",INDIRECT("マスタ!"&amp;ADDRESS($G11, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K11" s="1"/>
@@ -1414,11 +2553,11 @@
         <v/>
       </c>
       <c r="I12" s="1" t="str">
-        <f ca="1">IF(F12="","",INDIRECT("マスタ!"&amp;ADDRESS($G12, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K12" s="1"/>
@@ -1454,11 +2593,11 @@
         <v/>
       </c>
       <c r="I13" s="1" t="str">
-        <f ca="1">IF(F13="","",INDIRECT("マスタ!"&amp;ADDRESS($G13, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K13" s="1"/>
@@ -1480,11 +2619,11 @@
         <v/>
       </c>
       <c r="I14" s="1" t="str">
-        <f ca="1">IF(F14="","",INDIRECT("マスタ!"&amp;ADDRESS($G14, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K14" s="1"/>
@@ -1506,11 +2645,11 @@
         <v/>
       </c>
       <c r="I15" s="1" t="str">
-        <f ca="1">IF(F15="","",INDIRECT("マスタ!"&amp;ADDRESS($G15, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K15" s="1"/>
@@ -1532,11 +2671,11 @@
         <v/>
       </c>
       <c r="I16" s="1" t="str">
-        <f ca="1">IF(F16="","",INDIRECT("マスタ!"&amp;ADDRESS($G16, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K16" s="1"/>
@@ -1558,11 +2697,11 @@
         <v/>
       </c>
       <c r="I17" s="1" t="str">
-        <f ca="1">IF(F17="","",INDIRECT("マスタ!"&amp;ADDRESS($G17, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K17" s="1"/>
@@ -1584,11 +2723,11 @@
         <v/>
       </c>
       <c r="I18" s="1" t="str">
-        <f ca="1">IF(F18="","",INDIRECT("マスタ!"&amp;ADDRESS($G18, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K18" s="1"/>
@@ -1610,11 +2749,11 @@
         <v/>
       </c>
       <c r="I19" s="1" t="str">
-        <f ca="1">IF(F19="","",INDIRECT("マスタ!"&amp;ADDRESS($G19, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K19" s="1"/>
@@ -1636,11 +2775,11 @@
         <v/>
       </c>
       <c r="I20" s="1" t="str">
-        <f ca="1">IF(F20="","",INDIRECT("マスタ!"&amp;ADDRESS($G20, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K20" s="1"/>
@@ -1662,11 +2801,11 @@
         <v/>
       </c>
       <c r="I21" s="1" t="str">
-        <f ca="1">IF(F21="","",INDIRECT("マスタ!"&amp;ADDRESS($G21, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K21" s="1"/>
@@ -1688,11 +2827,11 @@
         <v/>
       </c>
       <c r="I22" s="1" t="str">
-        <f ca="1">IF(F22="","",INDIRECT("マスタ!"&amp;ADDRESS($G22, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K22" s="1"/>
@@ -1714,11 +2853,11 @@
         <v/>
       </c>
       <c r="I23" s="1" t="str">
-        <f ca="1">IF(F23="","",INDIRECT("マスタ!"&amp;ADDRESS($G23, I$3)))</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K23" s="1"/>
@@ -1730,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -2113,5 +3252,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>